--- a/data/trans_orig/CoPsoQ_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>45185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35320</v>
+        <v>34857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57668</v>
+        <v>56282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3706751639623401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2897453243579799</v>
+        <v>0.2859436498603857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4730732906237153</v>
+        <v>0.4617039622902178</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -764,19 +764,19 @@
         <v>31548</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22893</v>
+        <v>22599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41190</v>
+        <v>42512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3793737612825586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2752987725649117</v>
+        <v>0.2717642231521822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4953231471418963</v>
+        <v>0.5112241374976902</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -785,19 +785,19 @@
         <v>76733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61206</v>
+        <v>62176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89720</v>
+        <v>90918</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3742027279452242</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2984813020670189</v>
+        <v>0.3032107023294232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4375351835548997</v>
+        <v>0.4433766419582029</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>76715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64232</v>
+        <v>65618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86580</v>
+        <v>87043</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6293248360376599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5269267093762852</v>
+        <v>0.5382960377097822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7102546756420202</v>
+        <v>0.7140563501396141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -835,19 +835,19 @@
         <v>51610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41968</v>
+        <v>40646</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60265</v>
+        <v>60559</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6206262387174414</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.504676852858103</v>
+        <v>0.4887758625023099</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7247012274350881</v>
+        <v>0.728235776847818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -856,19 +856,19 @@
         <v>128325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115338</v>
+        <v>114140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143852</v>
+        <v>142882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6257972720547758</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5624648164451003</v>
+        <v>0.5566233580417971</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7015186979329807</v>
+        <v>0.6967892976705768</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>35343</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24956</v>
+        <v>24626</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47696</v>
+        <v>47547</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2063491602888919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1457077232124406</v>
+        <v>0.1437794387983097</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2784735221589248</v>
+        <v>0.2776061886766401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -981,19 +981,19 @@
         <v>26650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18158</v>
+        <v>17920</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36740</v>
+        <v>36758</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2209565953927519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1505488850524189</v>
+        <v>0.148572308087379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3046127666730669</v>
+        <v>0.304761226345156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1002,19 +1002,19 @@
         <v>61993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49589</v>
+        <v>48171</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80093</v>
+        <v>77615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2123851728126457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1698908928374326</v>
+        <v>0.1650331692082647</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.274394621797735</v>
+        <v>0.2659045022752268</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>135933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>123580</v>
+        <v>123729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146320</v>
+        <v>146650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7936508397111081</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7215264778410752</v>
+        <v>0.7223938113233593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8542922767875594</v>
+        <v>0.8562205612016902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -1052,19 +1052,19 @@
         <v>93963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83873</v>
+        <v>83855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>102455</v>
+        <v>102693</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7790434046072481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6953872333269331</v>
+        <v>0.6952387736548441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8494511149475811</v>
+        <v>0.851427691912621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>211</v>
@@ -1073,19 +1073,19 @@
         <v>229896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>211796</v>
+        <v>214274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>242300</v>
+        <v>243718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7876148271873543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7256053782022648</v>
+        <v>0.7340954977247731</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8301091071625674</v>
+        <v>0.8349668307917352</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>30122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21066</v>
+        <v>21281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40694</v>
+        <v>39795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.224216239659411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1568025092253972</v>
+        <v>0.1584076824951968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.302907005142591</v>
+        <v>0.2962177645761245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1198,19 +1198,19 @@
         <v>23104</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15424</v>
+        <v>15577</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31396</v>
+        <v>31731</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.294931282718309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1968876019183891</v>
+        <v>0.1988394550116969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4007792863916038</v>
+        <v>0.4050524628542768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1219,19 +1219,19 @@
         <v>53227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42078</v>
+        <v>41766</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66847</v>
+        <v>66614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2502628235484324</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1978447434687941</v>
+        <v>0.1963748382991746</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.314305477014055</v>
+        <v>0.3132063232310583</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>104223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93651</v>
+        <v>94550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113279</v>
+        <v>113064</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.775783760340589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6970929948574087</v>
+        <v>0.7037822354238754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8431974907746028</v>
+        <v>0.841592317504803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1269,19 +1269,19 @@
         <v>55234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46942</v>
+        <v>46607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62914</v>
+        <v>62761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7050687172816911</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5992207136083965</v>
+        <v>0.5949475371457231</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8031123980816111</v>
+        <v>0.8011605449883031</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -1290,19 +1290,19 @@
         <v>159456</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>145836</v>
+        <v>146069</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>170605</v>
+        <v>170917</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7497371764515676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6856945229859454</v>
+        <v>0.6867936767689417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.802155256531206</v>
+        <v>0.8036251617008255</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>27638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19377</v>
+        <v>18810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38665</v>
+        <v>38659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1951452156785815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.136819468940037</v>
+        <v>0.1328154414786138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2730103757819927</v>
+        <v>0.2729659433538213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1415,19 +1415,19 @@
         <v>15039</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8869</v>
+        <v>9046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23787</v>
+        <v>24214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1498995217660762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08839739572262884</v>
+        <v>0.0901617580696617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2370924996578239</v>
+        <v>0.241347527733462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1436,19 +1436,19 @@
         <v>42677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31309</v>
+        <v>30780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57129</v>
+        <v>56929</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1763838539785893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1293995361357845</v>
+        <v>0.1272133423083743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2361174212335179</v>
+        <v>0.2352883745318753</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>113988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102961</v>
+        <v>102967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>122249</v>
+        <v>122816</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8048547843214185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7269896242180074</v>
+        <v>0.7270340566461787</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8631805310599635</v>
+        <v>0.8671845585213862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -1486,19 +1486,19 @@
         <v>85288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76540</v>
+        <v>76113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91458</v>
+        <v>91281</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8501004782339238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7629075003421758</v>
+        <v>0.7586524722665381</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9116026042773711</v>
+        <v>0.9098382419303384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>185</v>
@@ -1507,19 +1507,19 @@
         <v>199276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>184824</v>
+        <v>185024</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>210644</v>
+        <v>211173</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8236161460214108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7638825787664821</v>
+        <v>0.7647116254681249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8706004638642154</v>
+        <v>0.8727866576916261</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>38647</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28820</v>
+        <v>29169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48674</v>
+        <v>48518</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4754741911235231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3545671957057336</v>
+        <v>0.3588677162035834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5988288620107945</v>
+        <v>0.5969132608562832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1632,19 +1632,19 @@
         <v>14733</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8834</v>
+        <v>9014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22630</v>
+        <v>22049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2741150281939401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1643735296437223</v>
+        <v>0.1677218019746002</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4210539911356131</v>
+        <v>0.4102522566978178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -1653,19 +1653,19 @@
         <v>53380</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43010</v>
+        <v>41937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66666</v>
+        <v>65990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3953256220098669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3185281418704249</v>
+        <v>0.3105819782036615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4937219018767207</v>
+        <v>0.4887098302693243</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>42635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32608</v>
+        <v>32764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52462</v>
+        <v>52113</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5245258088764769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4011711379892055</v>
+        <v>0.403086739143717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6454328042942666</v>
+        <v>0.6411322837964167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -1703,19 +1703,19 @@
         <v>39013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31116</v>
+        <v>31697</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44912</v>
+        <v>44732</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7258849718060599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5789460088643871</v>
+        <v>0.5897477433021823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8356264703562778</v>
+        <v>0.8322781980253998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>78</v>
@@ -1724,19 +1724,19 @@
         <v>81648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68362</v>
+        <v>69038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>92018</v>
+        <v>93091</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6046743779901331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5062780981232797</v>
+        <v>0.5112901697306756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6814718581295751</v>
+        <v>0.6894180217963385</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>23286</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15278</v>
+        <v>15384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32736</v>
+        <v>33596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2032523703164764</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.133354519005968</v>
+        <v>0.1342802342153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2857449614263731</v>
+        <v>0.2932507124895883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1849,19 +1849,19 @@
         <v>18184</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11478</v>
+        <v>10681</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25628</v>
+        <v>25175</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3288732508359727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2075882705635278</v>
+        <v>0.1931712112706861</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4634989059154221</v>
+        <v>0.4553018998689525</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -1870,19 +1870,19 @@
         <v>41470</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30161</v>
+        <v>29740</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53458</v>
+        <v>52993</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2441445913121077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1775666557342159</v>
+        <v>0.1750871259096006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3147244360021734</v>
+        <v>0.3119845545287049</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>91279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81829</v>
+        <v>80969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99287</v>
+        <v>99181</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7967476296835236</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7142550385736267</v>
+        <v>0.7067492875104116</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8666454809940319</v>
+        <v>0.8657197657846999</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1920,19 +1920,19 @@
         <v>37108</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29664</v>
+        <v>30117</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43814</v>
+        <v>44611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6711267491640274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5365010940845779</v>
+        <v>0.5446981001310475</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7924117294364724</v>
+        <v>0.8068287887293139</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>117</v>
@@ -1941,19 +1941,19 @@
         <v>128388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116400</v>
+        <v>116865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139697</v>
+        <v>140118</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7558554086878922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6852755639978266</v>
+        <v>0.6880154454712951</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8224333442657842</v>
+        <v>0.8249128740903995</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>66912</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53732</v>
+        <v>53120</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84586</v>
+        <v>83104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2507785572159983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2013813687857901</v>
+        <v>0.1990879462915963</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3170182170365161</v>
+        <v>0.3114622826067058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -2066,19 +2066,19 @@
         <v>54074</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43060</v>
+        <v>41960</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68274</v>
+        <v>66868</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3019056912410433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2404132325346201</v>
+        <v>0.2342681288103018</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.381184331822475</v>
+        <v>0.3733368919502348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2087,19 +2087,19 @@
         <v>120987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100464</v>
+        <v>100135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142025</v>
+        <v>140957</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2713140900575314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2252903960755637</v>
+        <v>0.2245525736741812</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3184916914815026</v>
+        <v>0.3160971014131012</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>199907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182233</v>
+        <v>183715</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213087</v>
+        <v>213699</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7492214427840017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6829817829634839</v>
+        <v>0.6885377173932943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.79861863121421</v>
+        <v>0.8009120537084037</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -2137,19 +2137,19 @@
         <v>125036</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>110836</v>
+        <v>112242</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>136050</v>
+        <v>137150</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6980943087589567</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6188156681775251</v>
+        <v>0.6266631080497653</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7595867674653799</v>
+        <v>0.7657318711896984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>307</v>
@@ -2158,19 +2158,19 @@
         <v>324942</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>303904</v>
+        <v>304972</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>345465</v>
+        <v>345794</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7286859099424686</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6815083085184971</v>
+        <v>0.6839028985868988</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7747096039244362</v>
+        <v>0.7754474263258188</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>45439</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32758</v>
+        <v>33137</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59989</v>
+        <v>60927</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1269238366922138</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09150175402947787</v>
+        <v>0.0925601673459595</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1675636603853531</v>
+        <v>0.170183914353556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2283,19 +2283,19 @@
         <v>34792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23884</v>
+        <v>23647</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47130</v>
+        <v>46366</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1362459522400701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09353062995649848</v>
+        <v>0.0926024268325559</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1845609602193058</v>
+        <v>0.1815698560847984</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2304,19 +2304,19 @@
         <v>80232</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63238</v>
+        <v>63118</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99228</v>
+        <v>100340</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1308048902566072</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.103099850040124</v>
+        <v>0.1029036289902469</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1617759784014425</v>
+        <v>0.1635883600294515</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>312567</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>298017</v>
+        <v>297079</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>325248</v>
+        <v>324869</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8730761633077863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8324363396146469</v>
+        <v>0.8298160856464438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9084982459705221</v>
+        <v>0.9074398326540405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>200</v>
@@ -2354,19 +2354,19 @@
         <v>220570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>208232</v>
+        <v>208996</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>231478</v>
+        <v>231715</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8637540477599298</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8154390397806941</v>
+        <v>0.8184301439152015</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9064693700435014</v>
+        <v>0.9073975731674441</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>493</v>
@@ -2375,19 +2375,19 @@
         <v>533136</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>514140</v>
+        <v>513028</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>550130</v>
+        <v>550250</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8691951097433929</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8382240215985575</v>
+        <v>0.8364116399705481</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.896900149959876</v>
+        <v>0.8970963710097528</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>312573</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>201</v>
@@ -2500,19 +2500,19 @@
         <v>218125</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>488</v>
@@ -2521,19 +2521,19 @@
         <v>530698</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>1077247</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1045573</v>
+        <v>1042475</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1108062</v>
+        <v>1110870</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7750980353042721</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.752308381568574</v>
+        <v>0.7500791254028325</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7972703159861566</v>
+        <v>0.7992904374916141</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>653</v>
@@ -2571,19 +2571,19 @@
         <v>707822</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>677413</v>
+        <v>680585</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>733569</v>
+        <v>732686</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7644306805035411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7315889708497993</v>
+        <v>0.7350145450237656</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7922365854261355</v>
+        <v>0.7912831684095859</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1671</v>
@@ -2592,19 +2592,19 @@
         <v>1785069</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1742896</v>
+        <v>1738575</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1824824</v>
+        <v>1824010</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7708327519534548</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7526214783397871</v>
+        <v>0.7507555673424448</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7879999771615185</v>
+        <v>0.7876482299753822</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>45235</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35143</v>
+        <v>34657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56930</v>
+        <v>57747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3399804335265967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2641299743491259</v>
+        <v>0.2604755637588713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4278811370371798</v>
+        <v>0.4340226048700596</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -2961,19 +2961,19 @@
         <v>30260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21698</v>
+        <v>21549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40770</v>
+        <v>39893</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.302392382024732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2168245554604489</v>
+        <v>0.2153435185872899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4074196524479192</v>
+        <v>0.398652361120622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -2982,19 +2982,19 @@
         <v>75495</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60775</v>
+        <v>60605</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91165</v>
+        <v>90542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3238453220877027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.260702817241239</v>
+        <v>0.2599734853192011</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3910649967783038</v>
+        <v>0.388392806885609</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>87816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76121</v>
+        <v>75304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97908</v>
+        <v>98394</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6600195664734033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5721188629628207</v>
+        <v>0.5659773951299407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7358700256508742</v>
+        <v>0.7395244362411291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -3032,19 +3032,19 @@
         <v>69810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59300</v>
+        <v>60177</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78372</v>
+        <v>78521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.697607617975268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5925803475520811</v>
+        <v>0.6013476388793781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7831754445395512</v>
+        <v>0.7846564814127102</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -3053,19 +3053,19 @@
         <v>157625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141955</v>
+        <v>142578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>172345</v>
+        <v>172515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6761546779122973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6089350032216962</v>
+        <v>0.611607193114391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.739297182758761</v>
+        <v>0.7400265146807988</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>37830</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27270</v>
+        <v>27093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49968</v>
+        <v>49983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2221439354260399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1601332914830836</v>
+        <v>0.1590923107130354</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2934187001436953</v>
+        <v>0.2935056162743681</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3178,19 +3178,19 @@
         <v>24051</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16856</v>
+        <v>15875</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33929</v>
+        <v>33291</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2115632715791777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1482729282362121</v>
+        <v>0.1396420466355376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2984635968789853</v>
+        <v>0.2928465558508015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -3199,19 +3199,19 @@
         <v>61881</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49344</v>
+        <v>49206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78121</v>
+        <v>78278</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.217908338890397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1737598062914323</v>
+        <v>0.173273285223366</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2750965354114671</v>
+        <v>0.2756474677053397</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>132467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120329</v>
+        <v>120314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>143027</v>
+        <v>143204</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7778560645739601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7065812998563047</v>
+        <v>0.7064943837256319</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8398667085169164</v>
+        <v>0.8409076892869646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -3249,19 +3249,19 @@
         <v>89629</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79751</v>
+        <v>80389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96824</v>
+        <v>97805</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7884367284208222</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7015364031210145</v>
+        <v>0.7071534441491986</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8517270717637877</v>
+        <v>0.8603579533644626</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>206</v>
@@ -3270,19 +3270,19 @@
         <v>222096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>205856</v>
+        <v>205699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>234633</v>
+        <v>234771</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.782091661109603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7249034645885331</v>
+        <v>0.7243525322946602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8262401937085678</v>
+        <v>0.8267267147766338</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>36921</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27993</v>
+        <v>27992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46477</v>
+        <v>47694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2939852104252841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2228947462412004</v>
+        <v>0.2228849516429436</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3700701949352779</v>
+        <v>0.3797625539175404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3395,19 +3395,19 @@
         <v>22199</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14795</v>
+        <v>14446</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30565</v>
+        <v>30449</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2632338527972782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.175429586159506</v>
+        <v>0.1713020985038203</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3624325810205978</v>
+        <v>0.3610578537897763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -3416,19 +3416,19 @@
         <v>59121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47422</v>
+        <v>47070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72448</v>
+        <v>72187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2816312815444696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2259052723068258</v>
+        <v>0.22422459583025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3451169209824793</v>
+        <v>0.3438760146643796</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>88668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79112</v>
+        <v>77895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97596</v>
+        <v>97597</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7060147895747159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6299298050647225</v>
+        <v>0.6202374460824601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7771052537588</v>
+        <v>0.7771150483570564</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -3466,19 +3466,19 @@
         <v>62134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53768</v>
+        <v>53884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69538</v>
+        <v>69887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7367661472027217</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6375674189794025</v>
+        <v>0.6389421462102236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.824570413840494</v>
+        <v>0.8286979014961795</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>155</v>
@@ -3487,19 +3487,19 @@
         <v>150801</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137474</v>
+        <v>137735</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>162500</v>
+        <v>162852</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7183687184555303</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6548830790175214</v>
+        <v>0.6561239853356204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7740947276931748</v>
+        <v>0.7757754041697501</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>35092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25529</v>
+        <v>26275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45820</v>
+        <v>46018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3128158751972858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2275747693463963</v>
+        <v>0.2342254434432492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4084524503672006</v>
+        <v>0.4102167414357022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3612,19 +3612,19 @@
         <v>32215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23374</v>
+        <v>24277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40956</v>
+        <v>42561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.393543514879216</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2855423270058437</v>
+        <v>0.2965706091685972</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5003199291494408</v>
+        <v>0.519932448480236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -3633,19 +3633,19 @@
         <v>67307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54059</v>
+        <v>55177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81305</v>
+        <v>82787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3468722727974697</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.278597667020298</v>
+        <v>0.2843579516474778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4190126042290056</v>
+        <v>0.4266515742924321</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>77088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66360</v>
+        <v>66162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86651</v>
+        <v>85905</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6871841248027143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5915475496327995</v>
+        <v>0.5897832585642979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7724252306536041</v>
+        <v>0.7657745565567509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -3683,19 +3683,19 @@
         <v>49644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40903</v>
+        <v>39298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58485</v>
+        <v>57582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.606456485120784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4996800708505592</v>
+        <v>0.4800675515197652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7144576729941562</v>
+        <v>0.703429390831403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>119</v>
@@ -3704,19 +3704,19 @@
         <v>126732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112734</v>
+        <v>111252</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139980</v>
+        <v>138862</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6531277272025303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5809873957709943</v>
+        <v>0.5733484257075679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.721402332979702</v>
+        <v>0.7156420483525221</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>12384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7615</v>
+        <v>6759</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19232</v>
+        <v>19702</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1530158815808747</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09409565063770851</v>
+        <v>0.08351660486853144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2376416814979227</v>
+        <v>0.2434478683769875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3829,19 +3829,19 @@
         <v>9149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4632</v>
+        <v>4651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15816</v>
+        <v>15377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1650879613271922</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08357697853168079</v>
+        <v>0.08392000436534537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2853885385872606</v>
+        <v>0.2774810429526581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -3850,19 +3850,19 @@
         <v>21532</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13667</v>
+        <v>14334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30631</v>
+        <v>30939</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1579225454524729</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1002343388896891</v>
+        <v>0.1051315764676225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2246524457222585</v>
+        <v>0.2269145678704136</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>68546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61698</v>
+        <v>61228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73315</v>
+        <v>74171</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8469841184191252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7623583185020771</v>
+        <v>0.7565521316230125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9059043493622911</v>
+        <v>0.9164833951314686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -3900,19 +3900,19 @@
         <v>46269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39602</v>
+        <v>40041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50786</v>
+        <v>50767</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8349120386728078</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7146114614127393</v>
+        <v>0.7225189570473419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9164230214683192</v>
+        <v>0.9160799956346546</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -3921,19 +3921,19 @@
         <v>114816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>105717</v>
+        <v>105409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122681</v>
+        <v>122014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.842077454547527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7753475542777416</v>
+        <v>0.7730854321295851</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8997656611103112</v>
+        <v>0.8948684235323773</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>21614</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13780</v>
+        <v>13571</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30204</v>
+        <v>31284</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2010546999242162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1281796278613205</v>
+        <v>0.1262357877335032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2809583627077132</v>
+        <v>0.2910082392789101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4046,19 +4046,19 @@
         <v>8551</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3928</v>
+        <v>4500</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15112</v>
+        <v>14876</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1131574154846624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05197384315020963</v>
+        <v>0.05955496950604802</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1999782620142847</v>
+        <v>0.1968609691928483</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -4067,19 +4067,19 @@
         <v>30165</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20598</v>
+        <v>21491</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41199</v>
+        <v>41412</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1647722376781572</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1125134790581736</v>
+        <v>0.1173893034605217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2250429810032805</v>
+        <v>0.2262089596075531</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>85888</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77298</v>
+        <v>76218</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93722</v>
+        <v>93931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7989453000757838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7190416372922861</v>
+        <v>0.7089917607210899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8718203721386794</v>
+        <v>0.8737642122664967</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -4117,19 +4117,19 @@
         <v>67017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60456</v>
+        <v>60692</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71640</v>
+        <v>71068</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8868425845153376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8000217379857151</v>
+        <v>0.8031390308071519</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9480261568497903</v>
+        <v>0.940445030493952</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>151</v>
@@ -4138,19 +4138,19 @@
         <v>152906</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>141872</v>
+        <v>141659</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>162473</v>
+        <v>161580</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8352277623218428</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7749570189967195</v>
+        <v>0.7737910403924468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8874865209418263</v>
+        <v>0.8826106965394783</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>107734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89434</v>
+        <v>89791</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127712</v>
+        <v>125393</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3001980763956922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2492058393668067</v>
+        <v>0.2502007841851673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3558686045379736</v>
+        <v>0.3494050023223718</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -4263,19 +4263,19 @@
         <v>81932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67759</v>
+        <v>67505</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98480</v>
+        <v>98017</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2886496163658469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2387188233709369</v>
+        <v>0.2378218385617647</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3469495982601662</v>
+        <v>0.3453166028576185</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>174</v>
@@ -4284,19 +4284,19 @@
         <v>189666</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166662</v>
+        <v>166113</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>213216</v>
+        <v>216208</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2950979094620569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2593066743104695</v>
+        <v>0.2584522010836844</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3317388199166798</v>
+        <v>0.336394188740326</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>251141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>231163</v>
+        <v>233482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>269441</v>
+        <v>269084</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6998019236043078</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6441313954620262</v>
+        <v>0.6505949976776281</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7507941606331932</v>
+        <v>0.7497992158148326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>195</v>
@@ -4334,19 +4334,19 @@
         <v>201914</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>185366</v>
+        <v>185829</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>216087</v>
+        <v>216341</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7113503836341531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6530504017398336</v>
+        <v>0.6546833971423812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.761281176629063</v>
+        <v>0.7621781614382351</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>411</v>
@@ -4355,19 +4355,19 @@
         <v>453055</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>429505</v>
+        <v>426513</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>476059</v>
+        <v>476608</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7049020905379431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6682611800833199</v>
+        <v>0.663605811259674</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7406933256895303</v>
+        <v>0.7415477989163156</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>20942</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12967</v>
+        <v>13026</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30699</v>
+        <v>31331</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06386416921444875</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03954319800088191</v>
+        <v>0.03972505808744953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09361934955439402</v>
+        <v>0.09554585313630579</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -4480,19 +4480,19 @@
         <v>29219</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20474</v>
+        <v>20403</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40416</v>
+        <v>42671</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1231796623019284</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08631416259589141</v>
+        <v>0.08601248912976417</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1703815507846079</v>
+        <v>0.1798885972824483</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -4501,19 +4501,19 @@
         <v>50161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38182</v>
+        <v>37168</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64594</v>
+        <v>64891</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08876161650755059</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06756470019967645</v>
+        <v>0.06576983091136403</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1143018125221924</v>
+        <v>0.1148265023818068</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>306971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>297214</v>
+        <v>296582</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314946</v>
+        <v>314887</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9361358307855513</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9063806504456057</v>
+        <v>0.9044541468636944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9604568019991179</v>
+        <v>0.9602749419125506</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>200</v>
@@ -4551,19 +4551,19 @@
         <v>207988</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>196791</v>
+        <v>194536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216733</v>
+        <v>216804</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8768203376980717</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8296184492153921</v>
+        <v>0.8201114027175516</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9136858374041086</v>
+        <v>0.9139875108702358</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>494</v>
@@ -4572,19 +4572,19 @@
         <v>514958</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>500525</v>
+        <v>500228</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>526937</v>
+        <v>527951</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9112383834924495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8856981874778075</v>
+        <v>0.8851734976181932</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9324352998003235</v>
+        <v>0.934230169088636</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>317751</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>233</v>
@@ -4697,19 +4697,19 @@
         <v>237576</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>531</v>
@@ -4718,19 +4718,19 @@
         <v>555327</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2268199418019368</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>1098586</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1063692</v>
+        <v>1064158</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1129183</v>
+        <v>1127912</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7756529168610102</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.751016205058498</v>
+        <v>0.7513451607082292</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7972560062364052</v>
+        <v>0.7963582336831014</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>775</v>
@@ -4768,19 +4768,19 @@
         <v>794406</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>764711</v>
+        <v>765328</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>820356</v>
+        <v>820630</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7697861987449395</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7410122285769259</v>
+        <v>0.7416095145308691</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.794932947072426</v>
+        <v>0.7951982499976175</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1794</v>
@@ -4789,19 +4789,19 @@
         <v>1892991</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1849389</v>
+        <v>1848772</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1931484</v>
+        <v>1934440</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7731800581980632</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7553711378134933</v>
+        <v>0.7551192265538728</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7889023698334997</v>
+        <v>0.790109982119777</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>6421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2288</v>
+        <v>1807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15688</v>
+        <v>14456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1572116995236273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05602394499911369</v>
+        <v>0.04423727070185451</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3841321247016831</v>
+        <v>0.3539597377559072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -5158,19 +5158,19 @@
         <v>3034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1226</v>
+        <v>1080</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6783</v>
+        <v>6307</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09266783325615577</v>
+        <v>0.09266783325615578</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03744203315442191</v>
+        <v>0.03298621603849496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2071775493939268</v>
+        <v>0.192636927424588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5179,19 +5179,19 @@
         <v>9455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4957</v>
+        <v>5099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19704</v>
+        <v>18978</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1284924100730399</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06736136612969591</v>
+        <v>0.06929622473389517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2677838446693304</v>
+        <v>0.2579138389474124</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>34420</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25153</v>
+        <v>26385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38553</v>
+        <v>39034</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8427883004763728</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.615867875298317</v>
+        <v>0.6460402622440927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9439760550008894</v>
+        <v>0.9557627292981455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -5229,19 +5229,19 @@
         <v>29707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25958</v>
+        <v>26434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31515</v>
+        <v>31661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9073321667438442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.792822450606073</v>
+        <v>0.8073630725754116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9625579668455782</v>
+        <v>0.9670137839615051</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -5250,19 +5250,19 @@
         <v>64127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53878</v>
+        <v>54604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68625</v>
+        <v>68483</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8715075899269602</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7322161553306697</v>
+        <v>0.7420861610525872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9326386338703041</v>
+        <v>0.9307037752661047</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>23173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15014</v>
+        <v>13701</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32932</v>
+        <v>31199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4474309422523853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2898877920144181</v>
+        <v>0.2645429937601662</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6358586808688689</v>
+        <v>0.6023958078163649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -5375,19 +5375,19 @@
         <v>15661</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10527</v>
+        <v>10068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21657</v>
+        <v>21740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3638330888613845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2445660095221693</v>
+        <v>0.2338893951053758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5031368703303241</v>
+        <v>0.5050643649426613</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -5396,19 +5396,19 @@
         <v>38834</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28202</v>
+        <v>28799</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49580</v>
+        <v>50503</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4094872593686951</v>
+        <v>0.4094872593686953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2973745357050724</v>
+        <v>0.3036726481167578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5228016750778665</v>
+        <v>0.5325317688973016</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>28618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18859</v>
+        <v>20592</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36777</v>
+        <v>38090</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5525690577476147</v>
+        <v>0.5525690577476148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3641413191311312</v>
+        <v>0.3976041921836354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7101122079855818</v>
+        <v>0.735457006239834</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -5446,19 +5446,19 @@
         <v>27383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21387</v>
+        <v>21304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32517</v>
+        <v>32976</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6361669111386156</v>
+        <v>0.6361669111386155</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4968631296696761</v>
+        <v>0.494935635057339</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7554339904778307</v>
+        <v>0.7661106048946241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -5467,19 +5467,19 @@
         <v>56001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45255</v>
+        <v>44332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66633</v>
+        <v>66036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5905127406313045</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4771983249221337</v>
+        <v>0.4674682311026986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7026254642949276</v>
+        <v>0.6963273518832421</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>7353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3509</v>
+        <v>3585</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11948</v>
+        <v>12467</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2552837082048054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1218206199652034</v>
+        <v>0.1244702977959974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4147745181018236</v>
+        <v>0.4328065731959103</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5592,19 +5592,19 @@
         <v>6940</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3418</v>
+        <v>3641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11526</v>
+        <v>11618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2544073843709015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1252768575108198</v>
+        <v>0.1334681691104211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4224826837402815</v>
+        <v>0.4258740662220584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5613,19 +5613,19 @@
         <v>14294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8485</v>
+        <v>8755</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20981</v>
+        <v>20634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2548574512108071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1512879064397809</v>
+        <v>0.1560925362398939</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3740866470199743</v>
+        <v>0.3678905305905068</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>21452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16857</v>
+        <v>16338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25296</v>
+        <v>25220</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7447162917951946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5852254818981767</v>
+        <v>0.5671934268040904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8781793800347967</v>
+        <v>0.8755297022040026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -5663,19 +5663,19 @@
         <v>20341</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15755</v>
+        <v>15663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23863</v>
+        <v>23640</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7455926156290986</v>
+        <v>0.7455926156290984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5775173162597192</v>
+        <v>0.5741259337779421</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8747231424891805</v>
+        <v>0.8665318308895795</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -5684,19 +5684,19 @@
         <v>41792</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35105</v>
+        <v>35452</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47601</v>
+        <v>47331</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7451425487891929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6259133529800256</v>
+        <v>0.6321094694094932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8487120935602191</v>
+        <v>0.8439074637601063</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>23672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13110</v>
+        <v>13499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36489</v>
+        <v>36054</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3470244194603992</v>
+        <v>0.347024419460399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1921870193142956</v>
+        <v>0.1978939642458012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5349064213229588</v>
+        <v>0.5285411134061347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -5809,19 +5809,19 @@
         <v>18616</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11809</v>
+        <v>11165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25861</v>
+        <v>25841</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.416711564007708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2643297877939518</v>
+        <v>0.2499227076214389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.578874089357018</v>
+        <v>0.5784457765916198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -5830,19 +5830,19 @@
         <v>42288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29273</v>
+        <v>29151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55082</v>
+        <v>56778</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3746022075263041</v>
+        <v>0.374602207526304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2593059208839903</v>
+        <v>0.2582270910813073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4879274602267411</v>
+        <v>0.502955713040054</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>44543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31726</v>
+        <v>32161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55105</v>
+        <v>54716</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6529755805396007</v>
+        <v>0.6529755805396008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4650935786770413</v>
+        <v>0.4714588865938645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8078129806857042</v>
+        <v>0.8021060357541987</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -5880,19 +5880,19 @@
         <v>26058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18813</v>
+        <v>18833</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32865</v>
+        <v>33509</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.583288435992292</v>
+        <v>0.5832884359922919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.421125910642982</v>
+        <v>0.4215542234083802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7356702122060482</v>
+        <v>0.7500772923785609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -5901,19 +5901,19 @@
         <v>70601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57807</v>
+        <v>56111</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83616</v>
+        <v>83738</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6253977924736961</v>
+        <v>0.6253977924736959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5120725397732587</v>
+        <v>0.4970442869599458</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7406940791160098</v>
+        <v>0.7417729089186927</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>5213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2151</v>
+        <v>2242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9129</v>
+        <v>9641</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2351278550232107</v>
+        <v>0.2351278550232106</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09701081680869443</v>
+        <v>0.1011224936107207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.411739761360124</v>
+        <v>0.4348333728601894</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -6026,19 +6026,19 @@
         <v>9042</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5494</v>
+        <v>5453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13004</v>
+        <v>12671</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3886554465267638</v>
+        <v>0.3886554465267639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2361532405450759</v>
+        <v>0.2343702126456728</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5589594852635353</v>
+        <v>0.5446461439123185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -6047,19 +6047,19 @@
         <v>14255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9254</v>
+        <v>9797</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19631</v>
+        <v>19854</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3137382474284633</v>
+        <v>0.3137382474284632</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2036734230892012</v>
+        <v>0.2156151568029996</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.432044998589676</v>
+        <v>0.4369668752494052</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>16959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13043</v>
+        <v>12531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20021</v>
+        <v>19930</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7648721449767893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5882602386398759</v>
+        <v>0.5651666271398119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9029891831913055</v>
+        <v>0.8988775063892792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6097,19 +6097,19 @@
         <v>14223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10261</v>
+        <v>10594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17771</v>
+        <v>17812</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.611344553473236</v>
+        <v>0.6113445534732361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4410405147364645</v>
+        <v>0.4553538560876814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7638467594549241</v>
+        <v>0.7656297873543271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -6118,19 +6118,19 @@
         <v>31182</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25806</v>
+        <v>25583</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36183</v>
+        <v>35640</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6862617525715368</v>
+        <v>0.6862617525715367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5679550014103243</v>
+        <v>0.5630331247505949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7963265769107991</v>
+        <v>0.7843848431970004</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>12207</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7115</v>
+        <v>7447</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17691</v>
+        <v>18100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3648312812164459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2126298632710194</v>
+        <v>0.2225655617922765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5287206407529715</v>
+        <v>0.5409526231622926</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6243,19 +6243,19 @@
         <v>4309</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1871</v>
+        <v>1584</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2174868710235877</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09444379025099346</v>
+        <v>0.07996705383010579</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4051822702672621</v>
+        <v>0.4052045653654549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6264,19 +6264,19 @@
         <v>16516</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10713</v>
+        <v>10558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23270</v>
+        <v>22973</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3100352090518677</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2011060506759695</v>
+        <v>0.1982025482272582</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4368312929353804</v>
+        <v>0.4312541932379699</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>21253</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15769</v>
+        <v>15360</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26345</v>
+        <v>26013</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6351687187835543</v>
+        <v>0.6351687187835542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4712793592470285</v>
+        <v>0.4590473768377073</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7873701367289807</v>
+        <v>0.7774344382077235</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -6314,19 +6314,19 @@
         <v>15502</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11784</v>
+        <v>11783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17940</v>
+        <v>18227</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7825131289764122</v>
+        <v>0.7825131289764121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5948177297327379</v>
+        <v>0.5947954346345449</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9055562097490065</v>
+        <v>0.9200329461698942</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -6335,19 +6335,19 @@
         <v>36755</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30001</v>
+        <v>30298</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42558</v>
+        <v>42713</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6899647909481323</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5631687070646189</v>
+        <v>0.5687458067620301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7988939493240302</v>
+        <v>0.8017974517727425</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>36747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26227</v>
+        <v>27088</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47683</v>
+        <v>47975</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.407260509004266</v>
+        <v>0.4072605090042659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2906646206481281</v>
+        <v>0.3002139766345894</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5284555762031263</v>
+        <v>0.5316936563746922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -6460,19 +6460,19 @@
         <v>32203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24615</v>
+        <v>24413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41293</v>
+        <v>40857</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3454694822922305</v>
+        <v>0.3454694822922307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.264069116961724</v>
+        <v>0.2618944431413248</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4429853662734023</v>
+        <v>0.4383061090915606</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -6481,19 +6481,19 @@
         <v>68950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57169</v>
+        <v>57245</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84032</v>
+        <v>82657</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3758620437125834</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3116416392684018</v>
+        <v>0.3120575314614195</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.458076326108841</v>
+        <v>0.450580660364114</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>53483</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>42547</v>
+        <v>42255</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>64003</v>
+        <v>63142</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5927394909957341</v>
+        <v>0.592739490995734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4715444237968735</v>
+        <v>0.4683063436253078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.709335379351872</v>
+        <v>0.6997860233654106</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>77</v>
@@ -6531,19 +6531,19 @@
         <v>61013</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51923</v>
+        <v>52359</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>68601</v>
+        <v>68803</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6545305177077694</v>
+        <v>0.6545305177077696</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5570146337265972</v>
+        <v>0.5616938909084395</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7359308830382758</v>
+        <v>0.7381055568586751</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>119</v>
@@ -6552,19 +6552,19 @@
         <v>114495</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>99413</v>
+        <v>100788</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>126276</v>
+        <v>126200</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6241379562874164</v>
+        <v>0.6241379562874165</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5419236738911589</v>
+        <v>0.5494193396358861</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6883583607315983</v>
+        <v>0.6879424685385805</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>39646</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28015</v>
+        <v>28447</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51414</v>
+        <v>52560</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2896077506195876</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2046471048086487</v>
+        <v>0.2077996734391961</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3755715876760208</v>
+        <v>0.383946954267513</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -6677,19 +6677,19 @@
         <v>25005</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17976</v>
+        <v>17985</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33736</v>
+        <v>34019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2501536086451848</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1798338490793231</v>
+        <v>0.1799214747366373</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.337496666367727</v>
+        <v>0.3403299204670029</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -6698,19 +6698,19 @@
         <v>64651</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51811</v>
+        <v>50345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80691</v>
+        <v>78341</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2729568713107211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2187458095295973</v>
+        <v>0.2125548008073249</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3406748738747505</v>
+        <v>0.3307546144660482</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>97249</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85481</v>
+        <v>84335</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>108880</v>
+        <v>108448</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7103922493804122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6244284123239792</v>
+        <v>0.616053045732487</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7953528951913509</v>
+        <v>0.7922003265608034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -6748,19 +6748,19 @@
         <v>74955</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>66224</v>
+        <v>65941</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>81984</v>
+        <v>81975</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.749846391354815</v>
+        <v>0.7498463913548152</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6625033336322731</v>
+        <v>0.6596700795329971</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8201661509206767</v>
+        <v>0.8200785252633627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>168</v>
@@ -6769,19 +6769,19 @@
         <v>172204</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>156164</v>
+        <v>158514</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>185044</v>
+        <v>186510</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7270431286892788</v>
+        <v>0.727043128689279</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6593251261252492</v>
+        <v>0.6692453855339516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7812541904704025</v>
+        <v>0.7874451991926751</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>154432</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3269047081121942</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>144</v>
@@ -6894,19 +6894,19 @@
         <v>114811</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>269</v>
@@ -6915,19 +6915,19 @@
         <v>269243</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3143896371123066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>317976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>291280</v>
+        <v>293775</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>340715</v>
+        <v>341855</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6730952918878057</v>
+        <v>0.6730952918878058</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6165859590107186</v>
+        <v>0.6218674863862972</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7212295826421897</v>
+        <v>0.7236437504591205</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>350</v>
@@ -6965,19 +6965,19 @@
         <v>269181</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>251745</v>
+        <v>252528</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>285392</v>
+        <v>285690</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7010070722802016</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6555990202845194</v>
+        <v>0.6576380462984657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7432234532253618</v>
+        <v>0.7439991315377318</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>612</v>
@@ -6986,19 +6986,19 @@
         <v>587157</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>557075</v>
+        <v>557955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>615787</v>
+        <v>615244</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6856103628876933</v>
+        <v>0.6856103628876936</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.650485067104585</v>
+        <v>0.6515124364091152</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7190412681882793</v>
+        <v>0.7184068455568888</v>
       </c>
     </row>
     <row r="30">
